--- a/input_sample.xlsx
+++ b/input_sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyakr/Documents/ADC/Q2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/divyakr/Documents/Courses/ML/Predict_myocardialnfraction_from_geneExpression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42117BF1-32E9-9A4D-A119-BA1417C085FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68D5868-1864-424C-AD48-B271A70ED2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16560" yWindow="500" windowWidth="11860" windowHeight="16940" xr2:uid="{56E76CE1-313D-084C-85C8-70550E5398B4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{56E76CE1-313D-084C-85C8-70550E5398B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -789,7 +789,7 @@
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122:E369"/>
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
